--- a/Table_S5_CPM-FRAGMENT_ms.xlsx
+++ b/Table_S5_CPM-FRAGMENT_ms.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erikaellison/Library/Mobile Documents/com~apple~CloudDocs/Documents/umn.pmb/SpringerLab/manuscripts/mu.pro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26036211-99FF-4B49-898C-86EDAB854543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D10D8B-C612-324B-B130-F6062A95CCED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16400" yWindow="500" windowWidth="34800" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -125,17 +125,37 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Mu promoter</t>
-  </si>
-  <si>
-    <t>Gene promoter</t>
+    <t>Gene TSS</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Mu</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> TSS</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -285,6 +305,14 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -1044,7 +1072,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection sqref="A1:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1067,11 +1095,11 @@
     </row>
     <row r="2" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C2" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="16"/>
     </row>
